--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Whatsapp chatbot project\meta-mistral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Whatsapp chatbot project\mistral7b-Whatsappchatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754FFA9B-413B-467C-B9C6-0AE8975911BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F3AFB-FA2E-4DBB-9A7C-096486180462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>phone</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>sachin</t>
+  </si>
+  <si>
+    <t>sachin sir</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -330,6 +333,12 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>917042709578</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
